--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/VENERE/8.27/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/VENERE/8.27/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/VENERE/DA CARICARE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F853E71-1E9D-4C2A-B70C-47439C2CFBE4}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68E3C66-855E-4EC7-83F6-6F477D932A25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1779,16 +1779,16 @@
     <t>Non è possibile valorizzare il codice in questione con un valore diverso da S quindi l'utente non può mai incorrere in questo errore / scenario</t>
   </si>
   <si>
-    <t>2025-04-30T03:30:01Z</t>
-  </si>
-  <si>
-    <t>8a08d758c60a95d34c369cb6b6050c44</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.8f8ec1bd1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Come da email del 13/01/2025 di Segreteria Tecnica FSE - Andrea Di Pietra con oggetto Oggetto: FSE 2.0 - Richiesta di sollecito accreditamento applicativi (cha ha superato il Test 0) , dove si specifica che "il superamento della fase 1 del processo di accreditamento è ritenuto valido se l’applicativo supera almeno il caso di test 1, tra quelli attualmente previsti per il Profilo Sanitario Sintetico sul sito di GitHub Test Case Profilo Sanitario Sintetico."</t>
+  </si>
+  <si>
+    <t>2025-05-13T12:04:59Z</t>
+  </si>
+  <si>
+    <t>c7e4be72e2ae011ef565978edf3c1e31</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.73996ac400^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2462,6 +2462,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2483,27 +2504,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2581,6 +2581,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3956,10 +3960,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4001,12 +4005,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4027,14 +4031,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4055,12 +4059,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4082,12 +4086,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4108,8 +4112,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -8945,7 +8949,7 @@
       <c r="K135" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L135" s="57" t="s">
+      <c r="L135" s="45" t="s">
         <v>445</v>
       </c>
       <c r="M135" s="38"/>
@@ -8988,7 +8992,7 @@
       <c r="K136" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L136" s="57" t="s">
+      <c r="L136" s="45" t="s">
         <v>446</v>
       </c>
       <c r="M136" s="38"/>
@@ -9031,7 +9035,7 @@
       <c r="K137" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L137" s="57" t="s">
+      <c r="L137" s="45" t="s">
         <v>447</v>
       </c>
       <c r="M137" s="38"/>
@@ -9074,7 +9078,7 @@
       <c r="K138" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L138" s="57" t="s">
+      <c r="L138" s="45" t="s">
         <v>448</v>
       </c>
       <c r="M138" s="38"/>
@@ -9117,7 +9121,7 @@
       <c r="K139" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L139" s="57" t="s">
+      <c r="L139" s="45" t="s">
         <v>449</v>
       </c>
       <c r="M139" s="38"/>
@@ -9160,7 +9164,7 @@
       <c r="K140" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L140" s="57" t="s">
+      <c r="L140" s="45" t="s">
         <v>450</v>
       </c>
       <c r="M140" s="38"/>
@@ -9203,7 +9207,7 @@
       <c r="K141" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L141" s="57" t="s">
+      <c r="L141" s="45" t="s">
         <v>451</v>
       </c>
       <c r="M141" s="38"/>
@@ -9246,7 +9250,7 @@
       <c r="K142" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L142" s="57" t="s">
+      <c r="L142" s="45" t="s">
         <v>452</v>
       </c>
       <c r="M142" s="38"/>
@@ -9289,7 +9293,7 @@
       <c r="K143" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L143" s="57" t="s">
+      <c r="L143" s="45" t="s">
         <v>453</v>
       </c>
       <c r="M143" s="38"/>
@@ -9332,7 +9336,7 @@
       <c r="K144" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L144" s="57" t="s">
+      <c r="L144" s="45" t="s">
         <v>454</v>
       </c>
       <c r="M144" s="38"/>
@@ -9375,7 +9379,7 @@
       <c r="K145" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L145" s="57" t="s">
+      <c r="L145" s="45" t="s">
         <v>455</v>
       </c>
       <c r="M145" s="38"/>
@@ -9418,7 +9422,7 @@
       <c r="K146" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L146" s="57" t="s">
+      <c r="L146" s="45" t="s">
         <v>456</v>
       </c>
       <c r="M146" s="38"/>
@@ -9461,7 +9465,7 @@
       <c r="K147" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L147" s="57" t="s">
+      <c r="L147" s="45" t="s">
         <v>457</v>
       </c>
       <c r="M147" s="38"/>
@@ -9504,7 +9508,7 @@
       <c r="K148" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L148" s="57" t="s">
+      <c r="L148" s="45" t="s">
         <v>458</v>
       </c>
       <c r="M148" s="38"/>
@@ -10203,34 +10207,34 @@
       <c r="E167" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="F167" s="58">
-        <v>45777</v>
-      </c>
-      <c r="G167" s="59" t="s">
-        <v>459</v>
-      </c>
-      <c r="H167" s="59" t="s">
+      <c r="F167" s="46">
+        <v>45790</v>
+      </c>
+      <c r="G167" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="I167" s="59" t="s">
+      <c r="H167" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="J167" s="60" t="s">
+      <c r="I167" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="J167" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="K167" s="60"/>
-      <c r="L167" s="60"/>
-      <c r="M167" s="60"/>
-      <c r="N167" s="60"/>
-      <c r="O167" s="60"/>
-      <c r="P167" s="60"/>
-      <c r="Q167" s="60"/>
-      <c r="R167" s="60"/>
-      <c r="S167" s="60"/>
-      <c r="T167" s="60"/>
-      <c r="U167" s="61"/>
-      <c r="V167" s="62"/>
-      <c r="W167" s="63" t="s">
+      <c r="K167" s="48"/>
+      <c r="L167" s="48"/>
+      <c r="M167" s="48"/>
+      <c r="N167" s="48"/>
+      <c r="O167" s="48"/>
+      <c r="P167" s="48"/>
+      <c r="Q167" s="48"/>
+      <c r="R167" s="48"/>
+      <c r="S167" s="48"/>
+      <c r="T167" s="48"/>
+      <c r="U167" s="49"/>
+      <c r="V167" s="50"/>
+      <c r="W167" s="51" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10261,7 +10265,7 @@
         <v>243</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -11044,7 +11048,7 @@
         <v>243</v>
       </c>
       <c r="L189" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M189" s="35"/>
       <c r="N189" s="35"/>

--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/VENERE/8.27/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.R.L/VENERE/8.27/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione/Caricamento SMART/VENERE/DA CARICARE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele.Romanazzi\Downloads\invio 16 maggio 2025\invio 16 maggio 2025\VENERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{8E096896-1A5D-440F-9CDB-C984B19F7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68E3C66-855E-4EC7-83F6-6F477D932A25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EA3371-A68C-4022-A7F8-D47A015B1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="464">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1734,9 +1734,6 @@
     <t>Il medico clicca su "OK" sulla finestra di errore quindi può ritentare l'invio</t>
   </si>
   <si>
-    <t>Non eseguito</t>
-  </si>
-  <si>
     <t>Il nostro sw non permette di incorrere in questo caso in quanto anche se assenti in cartella clinica la città di residenza/domicilio del paziente il campo "city" viene sempre inviato vuoto essendo obbligatorio</t>
   </si>
   <si>
@@ -1789,6 +1786,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190201.4.4.9eb93602b302c324f7f812128a82974ebc215f451cdf850428e498734718fded.73996ac400^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette all'utente di poter evitare di inserire il livello di riservatezza in quanto il dato è obbligatorio e di default valorizzato a "N"</t>
+  </si>
+  <si>
+    <t>Il nostro sw non permette di inviare un CF paziente non conforme o con caratteri minuscoli</t>
   </si>
 </sst>
 </file>
@@ -2581,10 +2584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3960,10 +3959,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H171" sqref="H171"/>
+      <selection pane="bottomRight" activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8906,8 +8905,8 @@
       <c r="K134" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="L134" s="38" t="s">
-        <v>444</v>
+      <c r="L134" t="s">
+        <v>463</v>
       </c>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8950,7 +8949,7 @@
         <v>243</v>
       </c>
       <c r="L135" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8993,7 +8992,7 @@
         <v>243</v>
       </c>
       <c r="L136" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -9036,7 +9035,7 @@
         <v>243</v>
       </c>
       <c r="L137" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9079,7 +9078,7 @@
         <v>243</v>
       </c>
       <c r="L138" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -9122,7 +9121,7 @@
         <v>243</v>
       </c>
       <c r="L139" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
@@ -9165,7 +9164,7 @@
         <v>243</v>
       </c>
       <c r="L140" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9208,7 +9207,7 @@
         <v>243</v>
       </c>
       <c r="L141" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9251,7 +9250,7 @@
         <v>243</v>
       </c>
       <c r="L142" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9294,7 +9293,7 @@
         <v>243</v>
       </c>
       <c r="L143" s="45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9337,7 +9336,7 @@
         <v>243</v>
       </c>
       <c r="L144" s="45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -9380,7 +9379,7 @@
         <v>243</v>
       </c>
       <c r="L145" s="45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -9423,7 +9422,7 @@
         <v>243</v>
       </c>
       <c r="L146" s="45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M146" s="38"/>
       <c r="N146" s="38"/>
@@ -9466,7 +9465,7 @@
         <v>243</v>
       </c>
       <c r="L147" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M147" s="38"/>
       <c r="N147" s="38"/>
@@ -9509,7 +9508,7 @@
         <v>243</v>
       </c>
       <c r="L148" s="45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M148" s="38"/>
       <c r="N148" s="38"/>
@@ -10211,13 +10210,13 @@
         <v>45790</v>
       </c>
       <c r="G167" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="H167" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="H167" s="47" t="s">
+      <c r="I167" s="47" t="s">
         <v>461</v>
-      </c>
-      <c r="I167" s="47" t="s">
-        <v>462</v>
       </c>
       <c r="J167" s="48" t="s">
         <v>64</v>
@@ -10265,7 +10264,7 @@
         <v>243</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M168" s="38"/>
       <c r="N168" s="38"/>
@@ -11047,8 +11046,8 @@
       <c r="K189" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="L189" s="38" t="s">
-        <v>459</v>
+      <c r="L189" t="s">
+        <v>462</v>
       </c>
       <c r="M189" s="35"/>
       <c r="N189" s="35"/>
@@ -17548,18 +17547,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17817,7 +17804,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17826,24 +17813,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17862,10 +17844,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
